--- a/October'21/25.10.2021/Hello Daffodils Balance Transfer August-2021.xlsx
+++ b/October'21/25.10.2021/Hello Daffodils Balance Transfer August-2021.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Alomgir</t>
   </si>
   <si>
-    <t>Midul</t>
-  </si>
-  <si>
     <t>Nishan</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
     <t>Ankur(sarvice)</t>
   </si>
   <si>
-    <t>Akram(42)</t>
-  </si>
-  <si>
     <t>Mezbah(ZSO)</t>
   </si>
   <si>
@@ -158,13 +152,7 @@
     <t>Distributor:Banglalink Digidal Communication Ltd.</t>
   </si>
   <si>
-    <t>Nayem</t>
-  </si>
-  <si>
     <t>Nayem(2)</t>
-  </si>
-  <si>
-    <t>Rubel</t>
   </si>
   <si>
     <t>Hafijul</t>
@@ -179,22 +167,13 @@
     <t>18.07.2021</t>
   </si>
   <si>
-    <t>Rony</t>
-  </si>
-  <si>
     <t>Due List-July'2021</t>
   </si>
   <si>
     <t>Sadek</t>
   </si>
   <si>
-    <t>31.08.2021</t>
-  </si>
-  <si>
     <t>04.09.2021</t>
-  </si>
-  <si>
-    <t>09.09.2021</t>
   </si>
   <si>
     <t>12.09.2021</t>
@@ -209,22 +188,13 @@
     <t>15.09.2021</t>
   </si>
   <si>
-    <t>16.09.2021</t>
-  </si>
-  <si>
     <t>18.09.2021</t>
   </si>
   <si>
     <t>18.04.2021</t>
   </si>
   <si>
-    <t>19.09.2021</t>
-  </si>
-  <si>
     <t>20.09.2021</t>
-  </si>
-  <si>
-    <t>23.09.2021</t>
   </si>
   <si>
     <t>25.09.2021</t>
@@ -309,6 +279,12 @@
   </si>
   <si>
     <t>25.10.2021</t>
+  </si>
+  <si>
+    <t>Beton</t>
+  </si>
+  <si>
+    <t>2 tarik</t>
   </si>
 </sst>
 </file>
@@ -1354,8 +1330,8 @@
   <dimension ref="A1:BH238"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1380,7 +1356,7 @@
   <sheetData>
     <row r="1" spans="1:60" ht="15.75" customHeight="1">
       <c r="A1" s="105" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="106"/>
       <c r="C1" s="106"/>
@@ -1563,7 +1539,7 @@
     </row>
     <row r="4" spans="1:60" ht="17.25" customHeight="1" thickBot="1">
       <c r="A4" s="114" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="114"/>
       <c r="C4" s="114"/>
@@ -1696,7 +1672,7 @@
     </row>
     <row r="6" spans="1:60" ht="12.6" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1">
         <v>207728</v>
@@ -1767,7 +1743,7 @@
     </row>
     <row r="7" spans="1:60" ht="12.6" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1">
         <v>242385</v>
@@ -1786,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="18"/>
@@ -1842,7 +1818,7 @@
     </row>
     <row r="8" spans="1:60" ht="12.6" customHeight="1">
       <c r="A8" s="57" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1">
         <v>214174</v>
@@ -1858,7 +1834,7 @@
       <c r="F8" s="76"/>
       <c r="G8" s="77"/>
       <c r="H8" s="103" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I8" s="104">
         <v>387</v>
@@ -1917,7 +1893,7 @@
     </row>
     <row r="9" spans="1:60" ht="12.6" customHeight="1">
       <c r="A9" s="13" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1">
         <v>238111</v>
@@ -1933,7 +1909,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="18"/>
       <c r="H9" s="103" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I9" s="104">
         <v>235</v>
@@ -1992,7 +1968,7 @@
     </row>
     <row r="10" spans="1:60" ht="12" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1">
         <v>207521</v>
@@ -2008,7 +1984,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="18"/>
       <c r="H10" s="103" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I10" s="104">
         <v>50</v>
@@ -2067,7 +2043,7 @@
     </row>
     <row r="11" spans="1:60" ht="12.6" customHeight="1">
       <c r="A11" s="13" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1">
         <v>298499</v>
@@ -2083,7 +2059,7 @@
       <c r="F11" s="85"/>
       <c r="G11" s="18"/>
       <c r="H11" s="103" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I11" s="104">
         <v>100</v>
@@ -2142,7 +2118,7 @@
     </row>
     <row r="12" spans="1:60" ht="12.6" customHeight="1">
       <c r="A12" s="13" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1">
         <v>222747</v>
@@ -2158,7 +2134,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="22"/>
       <c r="H12" s="103" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I12" s="104">
         <v>179</v>
@@ -2217,7 +2193,7 @@
     </row>
     <row r="13" spans="1:60" ht="12.6" customHeight="1">
       <c r="A13" s="13" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1">
         <v>792811</v>
@@ -2233,7 +2209,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="22"/>
       <c r="H13" s="103" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I13" s="104">
         <v>741</v>
@@ -2292,7 +2268,7 @@
     </row>
     <row r="14" spans="1:60" ht="12.6" customHeight="1">
       <c r="A14" s="13" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B14" s="1">
         <v>166432</v>
@@ -2308,7 +2284,7 @@
       <c r="F14" s="85"/>
       <c r="G14" s="18"/>
       <c r="H14" s="103" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I14" s="104">
         <v>1254</v>
@@ -2367,7 +2343,7 @@
     </row>
     <row r="15" spans="1:60" ht="12.6" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1">
         <v>182484</v>
@@ -2383,7 +2359,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="18"/>
       <c r="H15" s="103" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I15" s="104">
         <v>713</v>
@@ -2442,7 +2418,7 @@
     </row>
     <row r="16" spans="1:60" ht="12.6" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1">
         <v>238383</v>
@@ -2458,7 +2434,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="22"/>
       <c r="H16" s="103" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I16" s="104">
         <v>36</v>
@@ -2517,7 +2493,7 @@
     </row>
     <row r="17" spans="1:60" ht="12.6" customHeight="1">
       <c r="A17" s="13" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1">
         <v>222769</v>
@@ -2588,7 +2564,7 @@
     </row>
     <row r="18" spans="1:60" ht="12.6" customHeight="1">
       <c r="A18" s="13" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B18" s="1">
         <v>210683</v>
@@ -2659,7 +2635,7 @@
     </row>
     <row r="19" spans="1:60" ht="12.6" customHeight="1">
       <c r="A19" s="13" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B19" s="1">
         <v>217723</v>
@@ -2730,7 +2706,7 @@
     </row>
     <row r="20" spans="1:60" ht="12.6" customHeight="1">
       <c r="A20" s="13" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1">
         <v>202515</v>
@@ -2806,7 +2782,7 @@
     </row>
     <row r="21" spans="1:60" ht="12.6" customHeight="1">
       <c r="A21" s="13" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1">
         <v>468049</v>
@@ -2877,7 +2853,7 @@
     </row>
     <row r="22" spans="1:60" ht="12.6" customHeight="1">
       <c r="A22" s="13" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B22" s="1">
         <v>284482</v>
@@ -2948,7 +2924,7 @@
     </row>
     <row r="23" spans="1:60" ht="12.6" customHeight="1">
       <c r="A23" s="13" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1">
         <v>185795</v>
@@ -3019,7 +2995,7 @@
     </row>
     <row r="24" spans="1:60" ht="12.6" customHeight="1">
       <c r="A24" s="13" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B24" s="1">
         <v>207922</v>
@@ -3090,7 +3066,7 @@
     </row>
     <row r="25" spans="1:60" ht="12.6" customHeight="1">
       <c r="A25" s="13" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B25" s="1">
         <v>208698</v>
@@ -3161,7 +3137,7 @@
     </row>
     <row r="26" spans="1:60" ht="12.6" customHeight="1">
       <c r="A26" s="13" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B26" s="1">
         <v>220565</v>
@@ -3960,16 +3936,16 @@
     </row>
     <row r="38" spans="1:60" ht="12.6" customHeight="1">
       <c r="A38" s="42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C38" s="44">
         <v>6500</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -4027,16 +4003,16 @@
     </row>
     <row r="39" spans="1:60" ht="12.6" customHeight="1">
       <c r="A39" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C39" s="44">
         <v>54920</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -4513,7 +4489,7 @@
         <v>12</v>
       </c>
       <c r="F47" s="118" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G47" s="119"/>
       <c r="H47" s="120"/>
@@ -4574,13 +4550,13 @@
       <c r="D48" s="91"/>
       <c r="E48" s="2"/>
       <c r="F48" s="65" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G48" s="66">
         <v>21010</v>
       </c>
       <c r="H48" s="67" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I48" s="22"/>
       <c r="J48" s="6"/>
@@ -4640,13 +4616,13 @@
       <c r="D49" s="34"/>
       <c r="E49" s="2"/>
       <c r="F49" s="65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G49" s="66">
         <v>66600</v>
       </c>
       <c r="H49" s="68" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I49" s="22"/>
       <c r="J49" s="6"/>
@@ -4704,15 +4680,17 @@
         <v>14</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C50" s="53">
         <v>21930</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="F50" s="65" t="s">
         <v>14</v>
       </c>
@@ -4720,7 +4698,7 @@
         <v>27982</v>
       </c>
       <c r="H50" s="68" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I50" s="22"/>
       <c r="J50" s="6"/>
@@ -4775,26 +4753,28 @@
     </row>
     <row r="51" spans="1:60" ht="12" customHeight="1">
       <c r="A51" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C51" s="53">
         <v>13800</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="E51" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="F51" s="65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G51" s="66">
         <v>17559</v>
       </c>
       <c r="H51" s="68" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I51" s="22"/>
       <c r="J51" s="6"/>
@@ -4849,26 +4829,26 @@
     </row>
     <row r="52" spans="1:60" ht="12" customHeight="1">
       <c r="A52" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C52" s="53">
         <v>14655</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G52" s="66">
         <v>14655</v>
       </c>
       <c r="H52" s="68" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I52" s="22"/>
       <c r="J52" s="6"/>
@@ -4923,26 +4903,26 @@
     </row>
     <row r="53" spans="1:60" ht="12" customHeight="1">
       <c r="A53" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C53" s="53">
         <v>5939</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G53" s="70">
         <v>14360</v>
       </c>
       <c r="H53" s="67" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I53" s="22"/>
       <c r="J53" s="6"/>
@@ -4997,25 +4977,23 @@
     </row>
     <row r="54" spans="1:60" ht="12.75" customHeight="1">
       <c r="A54" s="34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C54" s="53">
         <v>14752</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="69" t="s">
-        <v>15</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F54" s="69"/>
       <c r="G54" s="70"/>
-      <c r="H54" s="67" t="s">
-        <v>56</v>
-      </c>
+      <c r="H54" s="67"/>
       <c r="I54" s="22"/>
       <c r="J54" s="6"/>
       <c r="M54" s="6"/>
@@ -5069,26 +5047,26 @@
     </row>
     <row r="55" spans="1:60" ht="12" customHeight="1">
       <c r="A55" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C55" s="53">
         <v>5327</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G55" s="70">
         <v>16022</v>
       </c>
       <c r="H55" s="67" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I55" s="22"/>
       <c r="J55" s="6"/>
@@ -5143,26 +5121,28 @@
     </row>
     <row r="56" spans="1:60">
       <c r="A56" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C56" s="53">
         <v>24354</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E56" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="F56" s="69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G56" s="70">
         <v>10047</v>
       </c>
       <c r="H56" s="67" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I56" s="22"/>
       <c r="J56" s="6"/>
@@ -5217,26 +5197,26 @@
     </row>
     <row r="57" spans="1:60" ht="11.25" customHeight="1">
       <c r="A57" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C57" s="53">
         <v>11732</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G57" s="70">
         <v>29854</v>
       </c>
       <c r="H57" s="67" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I57" s="22"/>
       <c r="J57" s="6"/>
@@ -5291,25 +5271,23 @@
     </row>
     <row r="58" spans="1:60" ht="12" customHeight="1">
       <c r="A58" s="49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C58" s="53">
         <v>31900</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="71" t="s">
-        <v>43</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" s="71"/>
       <c r="G58" s="70"/>
-      <c r="H58" s="67" t="s">
-        <v>46</v>
-      </c>
+      <c r="H58" s="67"/>
       <c r="I58" s="22"/>
       <c r="J58" s="6"/>
       <c r="K58" s="18"/>
@@ -5365,26 +5343,28 @@
     </row>
     <row r="59" spans="1:60" ht="12" customHeight="1">
       <c r="A59" s="34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C59" s="53">
         <v>23306</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E59" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="F59" s="69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G59" s="70">
         <v>130</v>
       </c>
       <c r="H59" s="67" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I59" s="22"/>
       <c r="J59" s="6"/>
@@ -5441,26 +5421,26 @@
     </row>
     <row r="60" spans="1:60" ht="12" customHeight="1">
       <c r="A60" s="33" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C60" s="54">
         <v>2615</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G60" s="70">
         <v>23025</v>
       </c>
       <c r="H60" s="67" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I60" s="22"/>
       <c r="J60" s="6"/>
@@ -5517,26 +5497,26 @@
     </row>
     <row r="61" spans="1:60" ht="12" customHeight="1">
       <c r="A61" s="38" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C61" s="53">
         <v>2730</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G61" s="70">
         <v>37441</v>
       </c>
       <c r="H61" s="67" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I61" s="22"/>
       <c r="J61" s="6"/>
@@ -5593,27 +5573,23 @@
     </row>
     <row r="62" spans="1:60" ht="12" customHeight="1">
       <c r="A62" s="36" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C62" s="55">
         <v>6449</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F62" s="71" t="s">
-        <v>38</v>
-      </c>
+      <c r="F62" s="71"/>
       <c r="G62" s="70"/>
-      <c r="H62" s="67" t="s">
-        <v>48</v>
-      </c>
+      <c r="H62" s="67"/>
       <c r="I62" s="22"/>
       <c r="J62" s="6"/>
       <c r="K62" s="18"/>
@@ -5669,26 +5645,28 @@
     </row>
     <row r="63" spans="1:60" ht="12" customHeight="1">
       <c r="A63" s="36" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C63" s="55">
         <v>15720</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="E63" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="F63" s="71" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G63" s="70">
         <v>28305</v>
       </c>
       <c r="H63" s="67" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I63" s="22"/>
       <c r="J63" s="6"/>
@@ -5745,26 +5723,26 @@
     </row>
     <row r="64" spans="1:60" ht="12" customHeight="1">
       <c r="A64" s="33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C64" s="53">
         <v>473</v>
       </c>
       <c r="D64" s="37" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G64" s="70">
         <v>3615</v>
       </c>
       <c r="H64" s="67" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I64" s="22"/>
       <c r="J64" s="6"/>
@@ -5825,13 +5803,9 @@
       <c r="C65" s="53"/>
       <c r="D65" s="37"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="67" t="s">
-        <v>26</v>
-      </c>
+      <c r="F65" s="67"/>
       <c r="G65" s="70"/>
-      <c r="H65" s="67" t="s">
-        <v>58</v>
-      </c>
+      <c r="H65" s="67"/>
       <c r="I65" s="22"/>
       <c r="J65" s="6"/>
       <c r="K65" s="18"/>
@@ -5954,13 +5928,13 @@
       <c r="D67" s="34"/>
       <c r="E67" s="2"/>
       <c r="F67" s="71" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G67" s="70">
         <v>473</v>
       </c>
       <c r="H67" s="67" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I67" s="22"/>
       <c r="J67" s="6"/>
@@ -6021,13 +5995,9 @@
       <c r="C68" s="53"/>
       <c r="D68" s="34"/>
       <c r="E68" s="5"/>
-      <c r="F68" s="71" t="s">
-        <v>36</v>
-      </c>
+      <c r="F68" s="71"/>
       <c r="G68" s="70"/>
-      <c r="H68" s="67" t="s">
-        <v>53</v>
-      </c>
+      <c r="H68" s="67"/>
       <c r="I68" s="22"/>
       <c r="J68" s="6"/>
       <c r="K68" s="18"/>
@@ -6150,11 +6120,11 @@
       <c r="D70" s="34"/>
       <c r="E70" s="2"/>
       <c r="F70" s="67" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G70" s="70"/>
       <c r="H70" s="67" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I70" s="22"/>
       <c r="J70" s="22"/>
@@ -6216,13 +6186,13 @@
       <c r="D71" s="34"/>
       <c r="E71" s="2"/>
       <c r="F71" s="74" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G71" s="70">
         <v>6685</v>
       </c>
       <c r="H71" s="67" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I71" s="61"/>
       <c r="J71" s="22"/>
@@ -6284,13 +6254,13 @@
       <c r="D72" s="34"/>
       <c r="E72" s="2"/>
       <c r="F72" s="67" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G72" s="70">
         <v>1994</v>
       </c>
       <c r="H72" s="67" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I72" s="22"/>
       <c r="J72" s="22"/>
@@ -6352,13 +6322,13 @@
       <c r="D73" s="34"/>
       <c r="E73" s="2"/>
       <c r="F73" s="71" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G73" s="70">
         <v>15720</v>
       </c>
       <c r="H73" s="67" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I73" s="22"/>
       <c r="J73" s="22"/>
